--- a/finetuning/it_datasets/it_dataset/it_hammam-lif_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_hammam-lif_dataset.xlsx
@@ -658,9 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Let's Waffle located at 8 Av. Habib Bourguiba, Hammam-Lif 2050. 
-This top-rated destination is perfect for Magasin de the aux perles lovers and offers a range of categories to choose from, including Magasin de the aux perles, Boutique de desserts, Restaurant, Boutique de boissons sans alcool . 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on Tuesday. To get there, use these GPS coordinates: 36.749742807238, 10.31095410246. For more details, visit their website  at https://www.facebook.com/profile.php%3Fid%3D100090508456915 or call them at 26 085 503.</t>
+          <t>Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.</t>
         </is>
       </c>
     </row>
@@ -759,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Cafe Rossignol, a top-rated spot at P8MP+8V2, Hammam-Lif, is a must-visit destination for Cafe lovers. With an impressive 4.0 rating, it offers a welcoming ambiance and a range of delectable coffee and tea options. It operates daily from 06:00 AM to 12:00 AM, offering a convenient time for you to enjoy your favorite brews. For more information, you can reach out to Cafe Rossignol directly at the provided address or via their website.</t>
+          <t>Cafe Rossignol is a popular cafe located in Hammam-Lif, Tunisia. It offers a pleasant atmosphere to relax or work. Visit it to appreciate its food and coffee items. It is open for long hours.</t>
         </is>
       </c>
     </row>
@@ -858,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Cafe, check out salon de the amazonia located at P999+2Q4 salon de the amazonia, Hammam-Lif. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:35-15:15. To get there, use these GPS coordinates: 36.7309361, 10.3325177.</t>
+          <t>Salon de thé Amazonia is a café located in Hammam-Lif, Tunisia, with a 4.4 rating based on 11 reviews. It is situated at coordinates (36.7309361, 10.3325177) and is known for its delicious coffee and pastries.</t>
         </is>
       </c>
     </row>
@@ -961,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe-Restaurant 59 located at P8PJ+X2W Cafe-Restaurant 59, Unnamed Road,, Hammam-Lif. This top-rated spot is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at or call them at 92 232 177.</t>
+          <t>Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.</t>
         </is>
       </c>
     </row>
@@ -1060,9 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great Cafe, check out Coco Coffee located at Coco Coffee, Hammam-Lif. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Coco Coffee is a cafe located in Hammam-Lif, Tunisia, offering a variety of coffee drinks and pastries. It is open daily from 6:00 AM to 11:30 PM, and is highly rated by customers with an average rating of 4.2 out of 5. The cafe has a cozy atmosphere and friendly staff, making it a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe experience, The Lab Cofee is the place to be! Located at Rue Habib Bougatfa, P8JP+RR4, this top-rated destination serves up delicious coffee and a cozy atmosphere. With a rating of 4.9, it's a must-visit spot for cafe lovers. The cafe is open from 07:00-23:00 every day of the week, so you can get your caffeine fix whenever you need it. To get there, use these GPS coordinates: 36.732938113011, 10.334654269469. For more details, visit their website or call them at 58 753 651.</t>
+          <t>The Lab Cofee, located at Rue Habib Bougatfa in Hammam-Lif (36.732938113011, 10.334654269469), is a popular cafe among locals. Open from 7 AM to 11 PM daily, The Lab Cofee has received an excellent rating of 4.9 based on 8 reviews. Despite not having a website or social media presence, the cafe's phone number is 58 753 651, and you can visit them during their regular business hours to enjoy a cup of their finest coffee.</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Calling all coffee enthusiasts in Hammam-Lif! Café Resto M59, located at 59 Bchira Ben Mrad, is the place to be. Rated an impressive 4.7, this beloved destination offers a cozy ambiance perfect for sipping on delicious coffee. Open from 08:00-22:25 (closed on Tuesdays), Café Resto M59 invites you to relax and savor its carefully crafted beverages. To get there, simply make your way to the GPS coordinates (36.7255857, 10.3437438). For inquiries, give them a call at 97 445 322.</t>
+          <t>Cafe resto M59 is a highly-rated cafe in Hammam-Lif, Tunisia, known for its delicious food and friendly service. Located at 59 bchira ben mrad, it offers a wide variety of dishes and beverages, making it a popular spot for locals and tourists alike. The cafe is open from 8 AM to 10:25 PM every day except Tuesdays.</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1367,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out cafe brasilia located at cite casino, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.facebook.com/Brasilia-coffee-101155535909236 or call them at 27 558 909.</t>
+          <t>Café Brasilia is a cozy cafe located in Hammam-Lif, Tunisia (coordinates: 36.7188867, 10.3543151). It offers a warm and inviting atmosphere, perfect for enjoying a cup of coffee or a light meal. The cafe is open from 6:00 AM to midnight every day, making it a convenient spot for both early risers and late-night owls.</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1470,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out Cafe Chaabia located at n15, Avenue Charles Nicolle. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:30-23:00. To get there, use these GPS coordinates: 36.725680425691, 10.345652176782. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A8+Chaabia/data=!4m7!3m6!1s0x12fd492cc25bb2e1:0x98c04cb849f65662!8m2!3d36.7245618!4d10.3484431!16s%2Fg%2F11dxrr7_g_!19sChIJ4bJbwixJ_RIRYlb2SbhMwJg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 641 601.</t>
+          <t>Nestled in Hammam-Lif, Cafe Chaabia is a cozy spot to unwind. Located at 36.725680425691, 10.345652176782, it offers a relaxing ambiance from 05:30 to 23:00 daily. With a rating of 4.7 based on 6 reviews, Cafe Chaabia is known for its cafe offerings. You can contact them at 25 641 601 for inquiries.</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1565,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe Zina located at P986+2P8 Cafe Zina, P1, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>**Cafe Zina** is a highly-rated (4.7 out of 5 stars with 6 reviews) cafe located in Hammam-Lif, Tunisia. It serves as a popular spot for locals and tourists alike, offering a pleasant cafe atmosphere and various amenities. Cafe Zina is open during the day and evening from 6:00 AM to 11:00 PM. Its exact location is at P986+2P8 Cafe Zina, P1.</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1660,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe Wifi located at P979+623 Cafe Wifi, Av. de la paix, Hammam-Lif. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a cozy Cafe, check out La Cabane (Sardouk) located at P8QH+G6P La Cabane (Sardouk), Rue Saad Zaghloul, Hammam-Lif. This top-rated spot offers a range of Cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24/24. To get there, you can use these GPS coordinates: 36.736779162907, 10.32952542942. For more details, visit their website at https://www.google.com/maps/place/La+Cabane+%28Sardouk%29/data=!4m7!3m6!1s0x12fd4930f69b7605:0x2b102fdad8226b8c!8m2!3d36.7388324!4d10.3280664!16s%2Fg%2F11jx1x2rht!19sChIJBXab9jBJ_RIRjGsi2NovECs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.</t>
         </is>
       </c>
     </row>
@@ -1862,9 +1858,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hammam Linf located at Rue Habib Bougatfa, Hammam-Lif.
-This top-rated destination is perfect for Cafe lovers.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.732938113011, 10.334654269469.</t>
+          <t>Hammam Linf is a cafe located in Hammam-Lif, Tunisia, known for its cozy ambiance and delicious offerings. Situated on Rue Habib Bougatfa, it operates daily from 6 am to midnight, except for holidays. Featuring a 4.0 rating based on customer reviews, the cafe offers a relaxing atmosphere and friendly service.</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1953,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif, 3 Bro's, located at 6 Rue D' Alger, Hammam-Lif, is a highly recommended destination for Cafe enthusiasts. This top-rated spot offers a range of Cafe to choose from, making it a must-visit for lovers of this category. It boasts a rating of 4.5, based on 4 reviews.</t>
+          <t>3 Bro's is a Café located in Hammam Lif, Tunisia. It has 4 reviews with an average rating of 4.5. It can be found in the following coordinates: (36.731793003498, 10.333876679807).</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2060,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out BiancoNero located at 2, Avenue de l'independance, Hammam-Lif. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 14:00-22:00. To get there, use these GPS coordinates: 36.724316681141, 10.352072282858. For more details, visit their website at https://www.facebook.com/Bianconero-1161385820673252/ or call them at 71 421 893.</t>
+          <t>BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2163,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe Ludo located at Rue Slaheddine Bouchoucha, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.730867795258, 10.338396637101. For more details, call them at 50 315 711.</t>
+          <t>Cafe Ludo is a highly-rated cafe located in Hammam-Lif, offering a cozy and inviting ambiance. Open from 6 AM to midnight, this cafe serves a variety of coffee, tea, and other beverages along with snacks and light meals. Located at 36.730867795258, 10.338396637101, Cafe Ludo is a popular spot for locals and tourists alike to relax, socialize, and enjoy a delicious cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2262,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out cafe mosaique located at P8JR+8G7 cafe mosaique, Rue Pasteur. This top-rated destination is perfect for Cafe lovers, offering a cozy atmosphere and delicious menu items. With a rating of 4.7, it's a must-visit spot. cafe mosaique is open during these hours: 06:00-00:00. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+mosaique/data=!4m7!3m6!1s0x12fd49fcf297edbb:0xc39da1f374624c1d!8m2!3d36.7307765!4d10.341288!16s%2Fg%2F11hjkqgh5l!19sChIJu-2X8vxJ_RIRHUxidPOhncM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan for reservations or inquiries.</t>
+          <t>Cafe Mosaique, located in Hammam-Lif (coordinates: 36.72951172979, 10.340563329129), is a cafe with a 4.7 rating based on 3 reviews. It offers its services from 6:00 am to midnight, every day of the week.</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2365,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Casa Italiana located at P8JM+CG6 Casa Italiana, Rue Antony, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.7310773, 10.3336664. For more details, visit their website at  or call them at 55 940 854.</t>
+          <t>Casa Italiana is a cafe located in Hammam-Lif, Tunisia, offering a cozy ambiance and delicious food and drinks. Its prime location makes it easily accessible, and with its warm atmosphere, Casa Italiana is the perfect place to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2460,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Salon De The L'histoire located at P8JP+VG3 Salon De The L'histoire, Rue Habib Bougatfa, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at nan or call them at 71 437 055.</t>
+          <t>Salon De The L'histoire is a cafe with a 4.3 rating located in Hammam-Lif. Located at P8JP+VG3 Rue Habib Bougatfa, it is open from 08:00-23:00 and offers a relaxing atmosphere to enjoy a cup of coffee or tea. Its phone number is 71 437 055, and you can also reach out to its owner, Salon De The L'histoire (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2555,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out La Cafet located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.google.com/maps/place/La+Caf%C3%A9t/data=!4m7!3m6!1s0x12fd4984e95cd7db:0x8a90cd6e8c497f38!8m2!3d36.7290128!4d10.3437693!16s%2Fg%2F11g__476t_!19sChIJ29dc6YRJ_RIROH9JjG7NkIo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at , as this information is currently unavailable.</t>
+          <t>Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2658,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out CAFE EL MAESTRO located at 03 Rue de la Republique. This top-rated spot offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.74439153775, 10.313528385302. For more details, visit their website at [website] or call them at 28 751 802.</t>
+          <t>CAFE EL MAESTRO is a 5-star rated cafe located at 03 Rue de la Republique, Hammam-Lif. It is open 24 hours a day and offers a variety of cafe-related services. The cafe is located at (36.74439153775, 10.313528385302).</t>
         </is>
       </c>
     </row>
@@ -2763,8 +2757,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated cafe, check out Cafe Mosaique located at P979+8H6 Cafe Mosaique, P1. 
-This destination is a must-visit spot for cafe lovers with a rating of 4.0. It's open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Mosaique/data=!4m7!3m6!1s0x12fd4f20fb19dba3:0xe34582cca982b154!8m2!3d36.7132806!4d10.3688865!16s%2Fg%2F1tpb861d!19sChIJo9sZ-yBP_RIRVLGCqcyCReM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Mosaique, located at P979+8H6 Cafe Mosaique, P1, Hammam-Lif, offers a cozy ambiance and a menu that caters to cafe enthusiasts. The cafe is open 24 hours a day, making it a convenient spot for those seeking a caffeine fix or a bite to eat at any hour. Its geolocation at (36.7255857, 10.3437438) places it conveniently within the city of Hammam-Lif.</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2856,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out Cafe Bessaies located at Militant Ali Chehimi. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bessaies/data=!4m7!3m6!1s0x12fd493af982ee99:0xf5ac426f58794e49!8m2!3d36.7316671!4d10.3364023!16s%2Fg%2F11dyp1c0dw!19sChIJme6C-TpJ_RIRSU55WG9CrPU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2951,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated cafe, check out cafe du sport located at P978+4PW cafe du sport, Av. de la paix,. This popular destination is perfect for cafe lovers and has a rating of 4.5. It's open during these hours: 06:30-23:00. To get there, use these GPS coordinates: 30.05492, -90.66731.</t>
+          <t>"Cafe du Sport" is a cafe located in Hammam-Lif, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews and is open from 6:30 AM to 11:00 PM.</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3050,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe hannibal located at P8GQ+J6C, RN1, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 36.732743558019, 10.322633566116.</t>
+          <t>Cafe Hannibal is a cozy cafe located in Hammam-Lif, Tunisia. It offers a warm and inviting atmosphere, making it the perfect place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and light meals, making it a great spot to grab a bite to eat. Cafe Hannibal is located at P8GQ+J6C on RN1, and its coordinates are 36.732743558019, 10.322633566116.</t>
         </is>
       </c>
     </row>
@@ -3152,9 +3145,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe skander located at P8HJ+MGR Cafe skander, RN1, Hammam-Lif. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+skander/data=!4m7!3m6!1s0x12fd498c14fc6eed:0xd787f8caec8ba57f!8m2!3d36.7292269!4d10.3312709!16s%2Fg%2F11k9kdwrhz!19sChIJ7W78FIxJ_RIRf6WL7Mr4h9c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Cafe skander** is a cafe located in hammam-lif, Tunisia. It offers a variety of coffee drinks, as well as pastries and snacks. The cafe is open from 8am to 8pm every day, and is located at P8HJ+MGR RN1, Hammam-Lif.</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3244,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Salon De The Jribi located at 36 Av. de la liberte, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.721708762725, 10.358406416192. For more details, visit their website at https://www.google.com/maps/place/Salon+De+Th%C3%A9+Jribi/data=!4m7!3m6!1s0x12fd4ed9af827b9b:0x466876590165042b!8m2!3d36.7193488!4d10.3633121!16s%2Fg%2F11f15dym0z!19sChIJm3uCr9lO_RIRKwRlAVl2aEY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [nan].</t>
+          <t>The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3339,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe perfetto located at P8JP+FF6 Cafe perfetto, Av. Habib Bourguiba, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.747038652609, 10.308746266612.</t>
+          <t>Cafe Perfeito is a cafe located in Hammam-Lif, Tunisia. It is located at the coordinates (36.747038652609, 10.308746266612). The cafe offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. It has a rating of 4.9 on Google Maps and has received 1 review.</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3438,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Biz-ART Coffee Club located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 92 221 045.</t>
+          <t>Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.</t>
         </is>
       </c>
     </row>
@@ -3550,9 +3541,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great Cafe, head to Cafe el Warda located at 2 Av. de la liberte, Hammam-Lif 1164. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 36.721407909282, 10.358516541477. For more details, visit their website.</t>
+          <t>Cafe el Warda is a cafe located in hammam-lif, Tunisia at the coordinates (36.721407909282, 10.358516541477). It is open 24 hours a day and offers a variety of cafe-style food and drinks. It has a rating of 5.0 stars based on one review.</t>
         </is>
       </c>
     </row>
@@ -3655,10 +3644,8 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a nice Cafe, check out Salon de The Aicha located at 49 Rue D' Alger, Hammam-Lif. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-00:00. 
-To get there, use these GPS coordinates: 36.73076352016, 10.335894253637. For more details, visit their website or call them at 26 726 484.</t>
+          <t>**Salon de The Aicha** 
+Situated at (36.73076352016, 10.335894253637), this cafe is located on 49 Rue D' Alger in Hammam-Lif, Tunisia. Open from 5:30 AM to midnight, this cafe is popular with reviewers, who give it an average rating of 4.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3740,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Gare Hammam Lif located at Gare Hammam Lif, Hammam-Lif. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Gare+Hammam+Lif/data=!4m7!3m6!1s0x12fd493b2d86b9dd:0x67526779e8018d5f!8m2!3d36.7293916!4d10.3350717!16s%2Fg%2F1tf90ptm!19sChIJ3bmGLTtJ_RIRX40B6HlnUmc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3847,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Game Zone hammam-lif located at Av. de la mer mediterannee, Hammam-Lif. This top-rated destination is perfect for Salle de jeux video lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at http://www.game-zone-hammamlif.com/ or call them at 58 584 577.</t>
+          <t>Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3946,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to grab a bite, check out Cafe El Bey located at Av. de la mer mediterannee, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a cozy ambiance. With a rating of 3.3, it's a must-visit spot. It's open during these hours: 05:00-02:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Bey/data=!4m7!3m6!1s0x12fd493c9885ef25:0x578a6b220128a2f3!8m2!3d36.7307908!4d10.3324741!16s%2Fg%2F1hc8dlh82!19sChIJJe-FmDxJ_RIR86IoASJrilc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 2804.</t>
+          <t>Cafe El Bey, located in Hammam-Lif (36.731944, 10.34012), is a cafe that offers a warm and welcoming atmosphere. With a rating of 3.3 based on 15 reviews, it's a popular spot for locals and tourists alike. Cafe El Bey is a great place to relax and enjoy a cup of coffee or tea while taking in the sights and sounds of the city.</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4053,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for relaxation, check out Larym located at 04 Avenue de la Republique, RN1. This top-rated destination is perfect for beauty, hammam, and spa lovers. With a rating of 3.9, it's a must-visit spot. It's open during these hours: 09:00-18:00, but closed on Mondays. To get there, use these GPS coordinates: 36.714115135042, 10.365112185542. For more details, visit their website at http://www.larym.tn/ or call them at 23 440 359.</t>
+          <t>Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4152,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a place to buy groceries, check out Hammam lif at P8FP+834 Hammam lif, Hammam-Lif. This market offers a wide variety of fresh produce, meats, cheeses, and other grocery items. With a rating of 4.5, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Hammam+lif/data=!4m7!3m6!1s0x12fd49ae196db81b:0xf908571acbf1e299!8m2!3d36.7232639!4d10.3352131!16s%2Fg%2F11ry6sz8zp!19sChIJG7htGa5J_RIRmeLxyxpXCPk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 751 756.</t>
+          <t>Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.</t>
         </is>
       </c>
     </row>
@@ -4260,9 +4247,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hammam-Lif. 
-This top-rated destination with a rating of 3.6  is perfect for Point d'eau lovers and offers a range of Point d'eau to choose from. 
-It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.</t>
         </is>
       </c>
     </row>
@@ -4365,9 +4350,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Electro Nabli located at Avenue de la mer, Rue de Mediterranee, Hammam-Lif 2050. 
-This top-rated destination is perfect for Magasin d'ameublement et de decoration lovers and offers a range of Magasin d'ameublement et de decoration to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 08:30-19:30, but closed on . To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at  or call them at 23 994 416.</t>
+          <t>Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4445,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Pavillon de plage, check out Plage located at P98P+V2V Plage, Hammam-Lif. With a rating of 4.0, it's a must-visit spot for Pavillon de plage lovers. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4542,11 @@
           <t>hammam-lif</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4648,11 +4635,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Banette located at P8JM+J72 Banette, Av. de la mer mediterannee, Hammam-Lif. 
-This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. 
-With a rating of 5.0, it's a must-visit spot.
-To get there, use these GPS coordinates: 36.7255857, 10.3437438. 
-For more details, visit their website at https://www.google.com/maps/place/Banette/data=!4m7!3m6!1s0x12fd493b7cff05ab:0x7cce6b5e996b4cf1!8m2!3d36.7315181!4d10.3331522!16s%2Fg%2F1tm3m4fy!19sChIJqwX_fDtJ_RIR8UxrmV5rznw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.</t>
         </is>
       </c>
     </row>
@@ -4747,11 +4730,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a place to stay, check out Municipalite d'Hammam-Lif located at P8HM+FFX Municipalite d'Hammam-Lif, RN1, Hammam-Lif. 
-This top-rated destination is perfect for Hotel de ville lovers. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.7284639, 10.3336672. For more details, visit their website 
-at https://www.google.com/maps/place/Municipalit%C3%A9+d%27Hammam-Lif/data=!4m7!3m6!1s0x12fd4924b0155555:0x720eac12f208817b!8m2!3d36.7287346!4d10.3337387!16s%2Fg%2F11txv23376!19sChIJVVUVsCRJ_RIRe4EI8hKsDnI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4825,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Memorial Aux Victimes D'Octobre 1985 located at P98C+R4H Memorial Aux Victimes D'Octobre 1985, shr` shhd Gr@ 'ktwbr1985,, Hammam-Lif. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9morial+Aux+Victimes+D%27Octobre+1985/data=!4m7!3m6!1s0x12fd4f1d447d9167:0x2676999f6651755e!8m2!3d36.7170674!4d10.3703548!16s%2Fg%2F11h51c7jv8!19sChIJZ5F9RB1P_RIRXnVRZp-ZdiY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4920,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Memorial Aux Victimes D'Octobre 1985 located at P98C+R4H Memorial Aux Victimes D'Octobre 1985, shr` shhd Gr@ 'ktwbr1985,, Hammam-Lif. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9morial+Aux+Victimes+D%27Octobre+1985/data=!4m7!3m6!1s0x12fd4f1d447d9167:0x2676999f6651755e!8m2!3d36.7170674!4d10.3703548!16s%2Fg%2F11h51c7jv8!19sChIJZ5F9RB1P_RIRXnVRZp-ZdiY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -5036,8 +5015,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Memorial Aux Victimes D'Octobre 1985 located at P98C+R4H Memorial Aux Victimes D'Octobre 1985, shr` shhd Gr@ 'ktwbr1985,,. 
-This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5118,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Parc national destination, check out Parc National Boukornine located at M96M+99H Parc National Boukornine, A1, Hammam-Lif. This must-visit spot with a rating of 4.1 has a range of categories to choose from, including Parc national and Attraction touristique. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, call them at 58 905 502.</t>
+          <t>Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5221,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Parc National Boukornine located at M96M+99H Parc National Boukornine, A1, Hammam-Lif. This top-rated destination is perfect for Parc national lovers and offers a range of attractions to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, visit their website at https://www.google.com/maps/place/Parc+National+Boukornine/data=!4m7!3m6!1s0x12fd458bac3c534b:0x6a33d35c2c66dc9b!8m2!3d36.6609432!4d10.383479!16s%2Fm%2F012w469s!19sChIJS1M8rItF_RIRm9xmLFzTM2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 905 502.</t>
+          <t>Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5324,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Parc National Boukornine located at M96M+99H Parc National Boukornine, A1, Hammam-Lif. This top-rated destination is perfect for Parc national lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, visit their website at https://www.google.com/maps/place/Parc+National+Boukornine/data=!4m7!3m6!1s0x12fd458bac3c534b:0x6a33d35c2c66dc9b!8m2!3d36.6609432!4d10.383479!16s%2Fm%2F012w469s!19sChIJS1M8rItF_RIRm9xmLFzTM2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 905 502.</t>
+          <t>Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.</t>
         </is>
       </c>
     </row>
@@ -5441,9 +5419,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Gare to visit, check out Gare Hammam Lif located at Gare Hammam Lif. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -5550,9 +5526,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Salon de manucure, check out Mariem Onglerie et beaute located at Av. Habib Bourguiba. 
-This top-rated destination offers a range of Salon de manucure to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on lundi. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100057127132882 or call them at 23 600 071.</t>
+          <t>Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5625,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hammam lif located at P8FP+834 Hammam lif, Hammam-Lif. This top-rated destination is perfect for Marche lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 50 751 756.</t>
+          <t>Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.</t>
         </is>
       </c>
     </row>
@@ -5746,9 +5720,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Point d'eau, check out Hammam-Lif located at Hammam-Lif. 
-This top-rated destination is perfect for Point d'eau lovers and offers a range of Point d'eau to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5823,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and seeking a top-rated Kinesitherapeute, consider Promedical. Located at Rue Ali Ben Ayed, P8HP+QGQ, it's a highly recommended destination for Kinesitherapeute enthusiasts. With a rating of 3.0, it operates during 08:30-18:30 on weekdays but remains closed on Sundays. Use the GPS coordinates (36.731550842514, 10.337667090555) to navigate or call 71 210 702 for more information.</t>
+          <t>Promedical, a physiotherapy center located in Hammam-Lif (36.731550842514°N, 10.337667090555°E), offers a range of physiotherapy services. The center is open from Monday to Saturday from 8:30 AM to 6:30 PM, with a rating of 3.0.</t>
         </is>
       </c>
     </row>
@@ -5954,9 +5926,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out ljbl l'khDr ltqTyr lnbtt located at P8GV+39F ljbl l'khDr ltqTyr lnbtt, Hammam-Lif. 
-This top-rated destination is perfect for Magasin d'alimentation naturelle lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D8%AC%D8%A8%D9%84+%D8%A7%D9%84%D8%A3%D8%AE%D8%B6%D8%B1+%D9%84%D8%AA%D9%82%D8%B7%D9%8A%D8%B1+%D8%A7%D9%84%D9%86%D8%A8%D8%A7%D8%AA%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x12fd49ac1aafd459:0x9248bfeb1e110678!8m2!3d36.7251753!4d10.3434265!16s%2Fg%2F11fn22s6s6!19sChIJWdSvGqxJ_RIReAYRHuu_SJI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 809 349.</t>
+          <t>ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6029,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great outdoor experience, head to Parc National Boukornine located at M96M+99H Parc National Boukornine, A1. This top-rated national park is perfect for nature lovers and offers hiking trails, orchids, and wildlife sightings. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, visit their website at https://www.google.com/maps/place/Parc+National+Boukornine/data=!4m7!3m6!1s0x12fd458bac3c534b:0x6a33d35c2c66dc9b!8m2!3d36.6609432!4d10.383479!16s%2Fm%2F012w469s!19sChIJS1M8rItF_RIRm9xmLFzTM2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 905 502.</t>
+          <t>Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6132,8 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out ljbl l'khDr ltqTyr lnbtt located at P8GV+39F ljbl l'khDr ltqTyr lnbtt, Hammam-Lif. This top-rated spot is perfect for Magasin d'alimentation naturelle lovers and offers a range of Magasin d'alimentation naturelle to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 23 809 349.</t>
+          <t>**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6236,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out club 55 located at club 55, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.google.com/maps/place/club+55/data=!4m7!3m6!1s0x12fd4fd89a173cb7:0x27dd93c7213e2aa6!8m2!3d36.7209514!4d10.3691665!16s%2Fg%2F11k43v37r8!19sChIJtzwXmthP_RIRpio-IceT3Sc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 690 206.</t>
+          <t>Club 55, nestled in Hammam-Lif, invites you to unwind 24/7. At the coordinates (36.7188867, 10.3543151), indulge in the cozy ambiance and delectable offerings of this Cafe.</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6335,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great Restaurant, check out lblby nwr@ - Lablebi noura located at P8PJ+W5R lblby nwr@ - Lablebi noura, Unnamed Road, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 16:00-00:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/%D9%84%D8%A8%D9%84%D8%A7%D8%A8%D9%8A+%D9%86%D9%88%D8%B1%D8%A9+-+Lablebi+noura%E2%80%AD/data=!4m7!3m6!1s0x12fd496a7f8c774b:0x1aace0a68655ecde!8m2!3d36.737364!4d10.3303928!16s%2Fg%2F11h2k2t0t0!19sChIJS3eMf2pJ_RIR3uxVhqbgrBo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lblby nwr@ - Lablebi noura is a restaurant located in Hammam-Lif, Tunisia. It has a 4.4-star rating and offers a variety of dishes. The restaurant is open daily and is closed on Fridays.</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6442,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out Mezzanotte Pizzeria located at Rue Salammbo, Rez de chaussee, Magasin 3, Hammam-Lif 2050. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on lundis. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.facebook.com/Mezzanotte.tn/ or call them at 52 721 172.</t>
+          <t>Mezzanotte Pizzeria is a highly-rated restaurant located in Hammam-Lif, Tunisia. It is known for its delicious pizzas. The restaurant is conveniently located on Rue Salammbo, making it easily accessible. Mezzanotte Pizzeria is open from 11:00-23:00 every day except Mondays, so you can enjoy its food anytime.</t>
         </is>
       </c>
     </row>
@@ -6574,7 +6545,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Foret noire located at Av. Habib Bourguiba, Hammam-Lif 2050. This top-rated destination is perfect for Creperie lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on lund. To get there, use these GPS coordinates: 36.7188867, 10.3543151.</t>
+          <t>Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.</t>
         </is>
       </c>
     </row>
@@ -6677,9 +6648,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant TAHRICHA tHrysh@ located at P8JM+79Q Restaurant TAHRICHA tHrysh@, Av. 20 Mars, Hammam-Lif. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438.  For more details, call them at 79 219 010.</t>
+          <t>Restaurant TAHRICHA tHrysh@ is a well-rated restaurant in Hammam-Lif, Tunisia, with a 4.0 rating based on 33 reviews. It offers a cozy atmosphere and serves delicious food. Located at 36.7255857 latitude and 10.3437438 longitude, it's open from 9:00 AM to midnight, except for special occasions.</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6751,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Pizzeria Marakana located at P8HP+PGF Restaurant Pizzeria Marakana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.733354, 3.0829392. For more details, visit their website or call them at 56 495 617.</t>
+          <t>Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6858,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Let's Waffle located at 8 Av. Habib Bourguiba, Hammam-Lif 2050. This top-rated destination is perfect for Magasin de the aux perles lovers and offers a range of categories to choose from, including Boutique de desserts, Restaurant, and Boutique de boissons sans alcool. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on mar. To get there, use these GPS coordinates: 36.749742807238, 10.31095410246. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100090508456915 or call them at 26 085 503.</t>
+          <t>Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.</t>
         </is>
       </c>
     </row>
@@ -6992,7 +6961,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Metro located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7322979, 10.3371658. For more details, visit their website at nan or call them at 26 908 321.</t>
+          <t>Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7060,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Sehili Junior located at P8HJ+GVH Restaurant Sehili Junior, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7275104, 10.3351815. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Sehili+Junior/data=!4m7!3m6!1s0x12fd49234fff11c3:0x5ea2643dfc011e0!8m2!3d36.7288028!4d10.33224!16s%2Fg%2F1hc5qwkt8!19sChIJwxH_TyNJ_RIR4BHA30Mm6gU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Sehili Junior is a well-rated restaurant located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of dishes in a casual and relaxed setting. The restaurant is open from 11:00 am to 11:00 pm, and is closed on Tuesdays.</t>
         </is>
       </c>
     </row>
@@ -7194,10 +7163,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Hammam-Lif and looking for a delicious pizza, check out Cafe-Restaurant 59 located at P8PJ+X2W Cafe-Restaurant 59, Unnamed Road. 
-This top-rated pizzeria is perfect for pizza lovers and offers a range of mouth-watering options to choose from. 
-With a rating of 4.0, it's a must-visit spot! Cafe-Restaurant 59 is open 24 hours a day, so you can satisfy your pizza craving anytime. 
-To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website or call them at 92 232 177.</t>
+          <t>Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7266,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Pizzeria PORTANOVA located at P8HR+73P Pizzeria PORTANOVA, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 15:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+PORTANOVA/data=!4m7!3m6!1s0x12fd492fc2d5c61f:0x398a8999bdb5cefc!8m2!3d36.7282193!4d10.3401897!16s%2Fg%2F11g8wj68f3!19sChIJH8bVwi9J_RIR_M61vZmJijk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 146 633.</t>
+          <t>Pizzeria PORTANOVA, located in Hammam-Lif (coordinates: 36.7255857, 10.3437438), offers a delicious dining experience with an extensive menu of pizzas and other Italian specialties. It is highly rated (4.9 out of 5), has received 10 reviews, and is open from 3 PM to midnight, except for Mondays.</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7369,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Paname fasst food located at Rue Salammbo, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on . To get there, use these GPS coordinates: 36.728634700847, 10.338080869607. For more details, visit their website at or call them at 22 511 107.</t>
+          <t>Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7476,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe-restaurant L' Opera located at Avenue Hedi Chaker, Hammam-Lif 2050. This top-rated destination is perfect for Diner lovers and offers a range of Diner categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.734452895696, 10.334998220361. For more details, visit their website at http://www.opera-tn.com/ or call them at 24 910 915.</t>
+          <t>Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7579,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Chefchouf located at Rue docteur calmet, Hammam-Lif 2050. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-13:00, 17:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at  or call them at 98 200 221.</t>
+          <t>Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).</t>
         </is>
       </c>
     </row>
@@ -7720,7 +7686,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated restaurant, check out Saddi Uno located at 15 Av. Taieb Mhiri, Hammam-Lif 2050. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on . To get there, use these GPS coordinates: 36.730566046379, 10.338273795571. For more details, visit their website at https://www.facebook.com/SADDIUNO1/ or call them at 98 509 710.</t>
+          <t>Saddi Uno is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes and has a rating of 4.3 out of 5 stars. The restaurant is open from 11:00am to 12:00am and is closed on Mondays. It is a great place to go for a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7785,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something delicious, check out Fast-food kahlewi located at Avenue Habib Bourguiba, Hammam-Lif. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-07:00, but closed on []. To get there, use these GPS coordinates: 36.747038652609, 10.308746266612.</t>
+          <t>Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7880,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great meal, Los caprichos is the place to go. Located at P989+WVP Los caprichos, Av. de la liberte, this top-rated restaurant is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.721708762725, 10.358406416192.</t>
+          <t>Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.</t>
         </is>
       </c>
     </row>
@@ -8017,7 +7983,8 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out machewi khayati (mshwy lkhyTy) located at 208 Avenue de la Republique, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-22:00, but closed on None. To get there, use these GPS coordinates: 33.892032977417, 9.799022225673. For more details, visit their website at nan or call them at 99 331 731.</t>
+          <t>**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8087,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Fresh Instant located at 16 rue Docteur Matri, Hammam-Lif. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on samedi and dimanche. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at or call them at 71 210 217.</t>
+          <t>Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8190,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great meal, head to Matador Restaurant at 32 Rue Hassine Bouzaiene. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on Sundays. For more details, visit their website or call them at 94 842 107.</t>
+          <t>Matador Restaurant is located at 32 Rue Hassine Bouzaiene, Hammam-Lif with coordinates (36.7255857, 10.3437438). Rated 4.5 based on 2 reviews, it's open from 11:00-23:00, except on Sunday. It's a restaurant that offers a variety of dishes.</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8293,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and seeking a satisfying meal, consider dining at L'UNICA Cafe Resto. Located at P8QJ+223 L'UNICA Cafe Resto, corniche, 63 rue Bchira ben Mrad, this highly-rated restaurant is known for its delectable cuisine. With a remarkable rating of 5.0, it's a must-visit destination. Open 24 hours a day, you can indulge in their culinary delights whenever you crave. For more information, visit their website or call 51 883 242.</t>
+          <t>L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8392,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out Ghalya cuisine et conserves located at 17 rue bechir nabheni. This top-rated restaurant is perfect for Restaurant enthusiasts offering a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 56 604 420.</t>
+          <t>Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8495,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a good restaurant, check out Restaurant Coq Roti Shili located at 9 Avenue de la Republique, Hammam-Lif 2050. This top-rated destination offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.714115135042, 10.365112185542. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Coq+R%C3%B4ti+Shili/data=!4m7!3m6!1s0x12fd49808a94a49d:0x88520f2c20a9df67!8m2!3d36.7263595!4d10.3380066!16s%2Fg%2F11v3t_d6bz!19sChIJnaSUioBJ_RIRZ9-pICwPUog?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 421 013.</t>
+          <t>Restaurant Coq Roti Shili is located in Hammam-Lif at 9 Avenue de la Republique. Its coordinates are (36.714115135042, 10.365112185542). It offers 24/7 service. There is no information about its website or description, but it has 1 review and a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8590,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in Hammam-Lif and looking for a great place to eat, check out Creche Ile au Tresor located at Av. de l'Environnement, Hammam-Lif. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.733289598091, 10.323450671271. For more details, visit their website at https://www.google.com/maps/place/Cr%C3%A9che+Ile+au+Tr%C3%A9sor/data=!4m7!3m6!1s0x12fd49254a2679b3:0x2d46a1b1c91b4016!8m2!3d36.728695!4d10.337282!16s%2Fg%2F113drxp3s!19sChIJs3kmSiVJ_RIRFkAbybGhRi0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8685,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out kskrwt tn Hmm l'nf located at P8HP+W3P, kskrwt tn Hmm l'nf, Av. Habib Bourguiba, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>kskrwt tn Hmm l'nf is a restaurant located in Hammam-Lif. Its coordinates are (36.7255857, 10.3437438) and it has a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8776,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Hammam located at P8HP+CMM Restaurant Hammam, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>The Restaurant Hammam is located in hammam-lif. The restaurant offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8867,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Restaurant, check out GRILL 33 located at P8HP+3V5 GRILL 33, Rue Salammbo. With a rating of 4.0, it's a must-visit spot.</t>
+          <t>GRILL 33 is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has one review. The restaurant's main category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8966,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in Hammam-Lif and looking for something fun to do, check out Paname Ici C Paname located at Rue Salammbo. This top-rated destination is perfect for restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Paname Ici C Paname is a restaurant located in Rue Salammbo, Hammam-Lif. It is highly rated with a 5.0/5 rating based on 1 review. The restaurant is open from 10:00 to 23:00 and offers a variety of dishes. Its coordinates are (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9069,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Restaurant tunisien, check out Restaurant Erray located at P8QJ+223 Restaurant Erray, Hammam-Lif. With a rating of 5.0, it's a must-visit spot for Restaurant tunisien lovers. It's open 24 hours a day, 7 days a week, so you can visit anytime. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.facebook.com/share/TDXwXaUAkooWUPTh/%3Fmibextid%3DdGKdO6 or call them at 51 883 242.</t>
+          <t>Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9172,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Pizzeria Marakana located at P8HP+PGF Restaurant Pizzeria Marakana, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.733354, 3.0829392. For more details, visit their website or call them at 56 495 617.</t>
+          <t>Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9271,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great dining experience, head to Restaurant Sehili Junior located at P8HJ+GVH Restaurant Sehili Junior, Hammam-Lif. This highly-rated restaurant offers a delightful culinary experience that's perfect for Restaurant enthusiasts. With a 4.3 rating, it's a must-visit spot in the city. It's open from 11:00-23:00, so you can enjoy a delicious meal at your convenience. For more details, check out their website or give them a call at nan.</t>
+          <t>Restaurant Sehili Junior is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, and is open from 11:00am to 11:00pm every day. The restaurant is located at the coordinates (36.7275104, 10.3351815).</t>
         </is>
       </c>
     </row>
@@ -9407,8 +9374,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out Pizzeria PORTANOVA located at P8HR+73P Pizzeria PORTANOVA, Hammam-Lif. 
-This top-rated restaurant is perfect for dining enthusiasts and offers a range of dining options to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 15:00-00:00, but closed on Monday. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+PORTANOVA/data=!4m7!3m6!1s0x12fd492fc2d5c61f:0x398a8999bdb5cefc!8m2!3d36.7282193!4d10.3401897!16s%2Fg%2F11g8wj68f3!19sChIJH8bVwi9J_RIR_M61vZmJijk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 146 633.</t>
+          <t>Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).</t>
         </is>
       </c>
     </row>
@@ -9511,9 +9477,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hotel Stokholm, Cite Ibn Rachik, A Cote De La Salle Couverte Ghelela located at P993+HFH Hotel Stokholm, Cite Ibn Rachik, A Cote De La Salle Couverte Ghelela, Hammam-Lif. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Hotel+Stokholm,+Cit%C3%A9+Ibn+Rachik,+%C3%80+C%C3%B4t%C3%A9+De+La+Salle+Couverte+Ghelela/data=!4m7!3m6!1s0x12fd4ed5b769cfcb:0x1afcfc4e21cad9d2!8m2!3d36.7189448!4d10.3537488!16s%2Fg%2F11bzsflklk!19sChIJy89pt9VO_RIR0tnKIU78_Bo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 928 127.</t>
+          <t>Hotel Stokholm is a 4-star hotel located in Hammam-Lif, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, and fitness center. It is conveniently located near the city center and the beach. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful. Overall, Hotel Stokholm is a great option for travelers looking for a comfortable and convenient stay in Hammam-Lif.</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9580,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant &amp; Salon de The AFRICANO located at P93V+Q98, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 5.92451, -71.18018. For more details, visit their website at or call them at 51 844 999.</t>
+          <t>Nestled in the heart of Hammam-Lif, Tunisia, lies Restaurant &amp; Salon de Thé Africano. This renowned establishment offers an unforgettable culinary experience, inviting guests to savor the captivating flavors of African cuisine in a warm and inviting atmosphere. Conveniently located at coordinates (5.92451, -71.18018), Africano welcomes patrons from 9:00 AM to 10:00 PM every day, excluding holidays.</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9675,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Gare Hammam Lif located at Gare Hammam Lif, Hammam-Lif. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Gare+Hammam+Lif/data=!4m7!3m6!1s0x12fd493b2d86b9dd:0x67526779e8018d5f!8m2!3d36.7293916!4d10.3350717!16s%2Fg%2F1tf90ptm!19sChIJ3bmGLTtJ_RIRX40B6HlnUmc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -9806,7 +9770,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Boukornine located at Boukornine, Hammam-Lif. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.73539, 10.32855.</t>
+          <t>Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).</t>
         </is>
       </c>
     </row>
@@ -9901,9 +9865,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Tahar Sfar located at Tahar Sfar, Hammam-Lif. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Tahar+Sfar/data=!4m7!3m6!1s0x12fd4ed7ea646b17:0x982676dc6dee11ea!8m2!3d36.7175239!4d10.3596742!16s%2Fg%2F1tg0h3fg!19sChIJF2tk6tdO_RIR6hHubdx2Jpg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.</t>
         </is>
       </c>
     </row>
@@ -9998,9 +9960,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Arret du Stade located at Arret du Stade, RN1, Hammam-Lif. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: (36.732743558019, 10.322633566116). For more details, visit their website at https://www.google.com/maps/place/Arr%C3%AAt+du+Stade/data=!4m7!3m6!1s0x12fd492c914403f1:0x502062814b520c3a!8m2!3d36.7237162!4d10.3479946!16s%2Fg%2F1tj54psr!19sChIJ8QNEkSxJ_RIROgxSS4FiIFA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).</t>
         </is>
       </c>
     </row>
@@ -10107,9 +10067,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a reliable station, check out TotalEnergies HAMMAM LIF located at N1 59 Av la Republique. 
-This top-rated destination is perfect for those seeking a reliable station and offers a range of services to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, providing convenience to its customers. To get there, use these GPS coordinates: 36.7287, 10.333. For more details, visit their website at https://services.totalenergies.tn/ or call them at 71 290 355.</t>
+          <t>TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10162,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a train station, check out by'r lby located at by'r lby, P1, Hammam-Lif. This top-rated destination is perfect for train station lovers. With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10265,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a reliable gas station, OLA ENERGY HAMMAM LIF is a top-rated option. Located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050, it offers a range of services, including gas, auto accessories, and oil change. With a rating of 4.0, it's a popular spot among locals. It's open 24 hours a day, so you can always count on it when you need fuel or other services. For more details, visit their website at https://www.google.com/maps/place/OLA+ENERGY+HAMMAM+LIF/data=!4m7!3m6!1s0x12fd493d669489bf:0xd9ebe22dadf9f7d3!8m2!3d36.7315293!4d10.3277871!16s%2Fg%2F1hf08lrr1!19sChIJv4mUZj1J_RIR0_f5rS3i69k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 258 208.</t>
+          <t>OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.</t>
         </is>
       </c>
     </row>
@@ -10402,9 +10360,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Agil Hammam lif located at P8FX+4HR Agil Hammam lif, P1, Hammam-Lif. 
-This top-rated destination is perfect for Station-service lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.722854, 10.3488626. For more details, visit their website at https://www.google.com/maps/place/Agil+Hammam+lif/data=!4m7!3m6!1s0x12fd49edf102131f:0x2bed98856e73d259!8m2!3d36.722824!4d10.348882!16s%2Fg%2F11l1q6tfr7!19sChIJHxMC8e1J_RIRWdJzboWY7Ss?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).</t>
         </is>
       </c>
     </row>
